--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377D267F-8D4F-46EC-A018-555032177B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3C3847-BA5B-455E-A55F-627B45C5181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3C3847-BA5B-455E-A55F-627B45C5181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A54905-9AA1-45B2-B483-8AAD45FF50A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -177,13 +177,51 @@
   <si>
     <t>십만대산 클리어하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMission2</t>
+  </si>
+  <si>
+    <t>TMission3</t>
+  </si>
+  <si>
+    <t>TMission4</t>
+  </si>
+  <si>
+    <t>TMission5</t>
+  </si>
+  <si>
+    <t>TMission6</t>
+  </si>
+  <si>
+    <t>TMission7</t>
+  </si>
+  <si>
+    <t>TMission8</t>
+  </si>
+  <si>
+    <t>TMission9</t>
+  </si>
+  <si>
+    <t>THIRD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMission10</t>
+  </si>
+  <si>
+    <t>TMission11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +245,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +264,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,15 +281,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,9 +305,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +682,7 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>8802</v>
       </c>
       <c r="F2">
@@ -653,7 +711,7 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>8802</v>
       </c>
       <c r="F3">
@@ -682,7 +740,7 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>8802</v>
       </c>
       <c r="F4">
@@ -711,7 +769,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>8802</v>
       </c>
       <c r="F5">
@@ -740,7 +798,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>8802</v>
       </c>
       <c r="F6">
@@ -769,7 +827,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>8802</v>
       </c>
       <c r="F7">
@@ -798,7 +856,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>8802</v>
       </c>
       <c r="F8">
@@ -827,7 +885,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>8802</v>
       </c>
       <c r="F9">
@@ -856,7 +914,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>8802</v>
       </c>
       <c r="F10">
@@ -885,7 +943,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>8802</v>
       </c>
       <c r="F11">
@@ -914,7 +972,7 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>8802</v>
       </c>
       <c r="F12">
@@ -943,7 +1001,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>8802</v>
       </c>
       <c r="F13">
@@ -972,7 +1030,7 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>8802</v>
       </c>
       <c r="F14">
@@ -1001,7 +1059,7 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>8802</v>
       </c>
       <c r="F15">
@@ -1030,7 +1088,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>8802</v>
       </c>
       <c r="F16">
@@ -1059,7 +1117,7 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>8802</v>
       </c>
       <c r="F17">
@@ -1088,7 +1146,7 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>8802</v>
       </c>
       <c r="F18">
@@ -1102,6 +1160,325 @@
       </c>
       <c r="I18" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>9042</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A54905-9AA1-45B2-B483-8AAD45FF50A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F784A552-8E62-4A6B-8A43-38B928421A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빠른전투 1회 수령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SMission9</t>
   </si>
   <si>
@@ -215,6 +211,56 @@
   </si>
   <si>
     <t>TMission11</t>
+  </si>
+  <si>
+    <t>AFIRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMission2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMission3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMission2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMission3</t>
+  </si>
+  <si>
+    <t>BMission4</t>
+  </si>
+  <si>
+    <t>BMission5</t>
+  </si>
+  <si>
+    <t>BMission6</t>
+  </si>
+  <si>
+    <t>BMission7</t>
+  </si>
+  <si>
+    <t>BMission8</t>
+  </si>
+  <si>
+    <t>BSECOND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴-광고보상-보상 받기 1회 수령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -624,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -706,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -735,7 +781,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -967,7 +1013,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1138,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -1167,7 +1213,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1188,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1196,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -1217,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1225,10 +1271,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1246,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1254,7 +1300,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -1275,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1283,7 +1329,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1304,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1312,7 +1358,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1333,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1341,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
@@ -1362,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1370,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -1391,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1399,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>34</v>
@@ -1420,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1428,10 +1474,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1449,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1457,10 +1503,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1478,7 +1524,326 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F30">
+        <v>500</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8806</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F784A552-8E62-4A6B-8A43-38B928421A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA35CB-4990-4B7D-B332-643D04BC081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -88,26 +88,6 @@
     <t>Mission7</t>
   </si>
   <si>
-    <t>도깨비나라 도깨비숲 보상 받기(레벨 50만 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천상계 하늘꽃밭 보상 받기(레벨 20만 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴지옥 지옥불꽃 보상 받기(레벨 5만 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검의산 검기 보상 받기(레벨 5만 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비전 클리어 또는 소탕(레벨 300이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반딧불전 클리어 또는 소탕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +95,6 @@
     <t>Mission8</t>
   </si>
   <si>
-    <t>수미산 정화 보상 받기(레벨 100만 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FIRST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,134 +116,274 @@
     <t>SMission4</t>
   </si>
   <si>
+    <t>SMission6</t>
+  </si>
+  <si>
+    <t>EventMissionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMission9</t>
+  </si>
+  <si>
+    <t>문파 점수 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견공 먹이주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십만대산 클리어하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMission2</t>
+  </si>
+  <si>
+    <t>TMission3</t>
+  </si>
+  <si>
+    <t>TMission4</t>
+  </si>
+  <si>
+    <t>TMission5</t>
+  </si>
+  <si>
+    <t>TMission6</t>
+  </si>
+  <si>
+    <t>TMission7</t>
+  </si>
+  <si>
+    <t>TMission8</t>
+  </si>
+  <si>
+    <t>TMission9</t>
+  </si>
+  <si>
+    <t>THIRD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMission10</t>
+  </si>
+  <si>
+    <t>TMission11</t>
+  </si>
+  <si>
+    <t>AFIRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMission2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMission3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMission2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMission3</t>
+  </si>
+  <si>
+    <t>BMission4</t>
+  </si>
+  <si>
+    <t>BMission6</t>
+  </si>
+  <si>
+    <t>BMission7</t>
+  </si>
+  <si>
+    <t>BMission8</t>
+  </si>
+  <si>
+    <t>BSECOND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴-광고보상-보상 받기 1회 수령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMarbleMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMarbleMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMALMARBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISHMARBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMarbleMission2</t>
+  </si>
+  <si>
+    <t>NMarbleMission3</t>
+  </si>
+  <si>
+    <t>NMarbleMission4</t>
+  </si>
+  <si>
+    <t>NMarbleMission5</t>
+  </si>
+  <si>
+    <t>NMarbleMission6</t>
+  </si>
+  <si>
+    <t>NMarbleMission7</t>
+  </si>
+  <si>
+    <t>NMarbleMission8</t>
+  </si>
+  <si>
+    <t>요사키 마블 1회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMarbleMission2</t>
+  </si>
+  <si>
+    <t>FMarbleMission3</t>
+  </si>
+  <si>
+    <t>FMarbleMission4</t>
+  </si>
+  <si>
+    <t>FMarbleMission5</t>
+  </si>
+  <si>
+    <t>FMarbleMission6</t>
+  </si>
+  <si>
+    <t>FMarbleMission7</t>
+  </si>
+  <si>
+    <t>FMarbleMission8</t>
+  </si>
+  <si>
+    <t>FMarbleMission9</t>
+  </si>
+  <si>
+    <t>FMarbleMission10</t>
+  </si>
+  <si>
+    <t>BMission5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMission8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMission7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SMission5</t>
-  </si>
-  <si>
-    <t>SMission6</t>
-  </si>
-  <si>
-    <t>SMission7</t>
-  </si>
-  <si>
-    <t>SMission8</t>
-  </si>
-  <si>
-    <t>EventMissionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼석 보상 받기(영혼의숲 25000 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMission9</t>
-  </si>
-  <si>
-    <t>문파 점수 등록하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견공 먹이주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>십만대산 클리어하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMission1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMission2</t>
-  </si>
-  <si>
-    <t>TMission3</t>
-  </si>
-  <si>
-    <t>TMission4</t>
-  </si>
-  <si>
-    <t>TMission5</t>
-  </si>
-  <si>
-    <t>TMission6</t>
-  </si>
-  <si>
-    <t>TMission7</t>
-  </si>
-  <si>
-    <t>TMission8</t>
-  </si>
-  <si>
-    <t>TMission9</t>
-  </si>
-  <si>
-    <t>THIRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMission10</t>
-  </si>
-  <si>
-    <t>TMission11</t>
-  </si>
-  <si>
-    <t>AFIRST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMission1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMission2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMission3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BMission1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BMission2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BMission3</t>
-  </si>
-  <si>
-    <t>BMission4</t>
-  </si>
-  <si>
-    <t>BMission5</t>
-  </si>
-  <si>
-    <t>BMission6</t>
-  </si>
-  <si>
-    <t>BMission7</t>
-  </si>
-  <si>
-    <t>BMission8</t>
-  </si>
-  <si>
-    <t>BSECOND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴-광고보상-보상 받기 1회 수령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의산 검기 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴지옥 지옥불꽃 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계 하늘꽃밭 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라 도깨비숲 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산 정화 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비전 클리어 또는 소탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMarbleMission11</t>
+  </si>
+  <si>
+    <t>FMarbleMission12</t>
+  </si>
+  <si>
+    <t>요사키 마블 3회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요사키 마블 5회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요사키 마블 10회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요사키 마블 15회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요사키 마블 20회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요사키 마블 25회 완주</t>
+  </si>
+  <si>
+    <t>요사키 마블 30회 완주</t>
+  </si>
+  <si>
+    <t>요사키 마블 35회 완주</t>
+  </si>
+  <si>
+    <t>요사키 마블 40회 완주</t>
+  </si>
+  <si>
+    <t>요사키 마블 45회 완주</t>
+  </si>
+  <si>
+    <t>요사키 마블 50회 완주</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +415,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +441,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -327,7 +456,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,8 +466,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,18 +478,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="3" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -670,20 +809,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -693,7 +833,7 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -712,500 +852,500 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>8802</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>500</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>8802</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>500</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
         <v>8802</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>500</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="G4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>8802</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>8802</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>8802</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="b">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>8802</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" t="b">
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>8802</v>
       </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="b">
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8802</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>8802</v>
       </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <v>8802</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <v>8802</v>
       </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8802</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>8802</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="b">
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8802</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8802</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8802</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
         <v>8802</v>
       </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8802</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>8802</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8802</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1213,15 +1353,15 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>9042</v>
       </c>
       <c r="F19">
@@ -1234,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1242,15 +1382,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>9042</v>
       </c>
       <c r="F20">
@@ -1263,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1271,15 +1411,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>9042</v>
       </c>
       <c r="F21">
@@ -1292,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1300,15 +1440,15 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>9042</v>
       </c>
       <c r="F22">
@@ -1321,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1329,15 +1469,15 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>9042</v>
       </c>
       <c r="F23">
@@ -1350,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1358,15 +1498,15 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>9042</v>
       </c>
       <c r="F24">
@@ -1379,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1387,15 +1527,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>9042</v>
       </c>
       <c r="F25">
@@ -1408,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1416,15 +1556,15 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>9042</v>
       </c>
       <c r="F26">
@@ -1437,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1445,15 +1585,15 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>9042</v>
       </c>
       <c r="F27">
@@ -1466,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1474,15 +1614,15 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>9042</v>
       </c>
       <c r="F28">
@@ -1495,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1503,15 +1643,15 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>9042</v>
       </c>
       <c r="F29">
@@ -1524,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1532,10 +1672,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -1553,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1561,10 +1701,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -1582,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1590,10 +1730,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -1611,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1619,10 +1759,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1640,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1648,10 +1788,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1669,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1677,10 +1817,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1698,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1706,10 +1846,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1727,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1735,10 +1875,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1756,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1764,10 +1904,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1785,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1793,10 +1933,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1814,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1822,10 +1962,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1843,7 +1983,587 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1461</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9033</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9028</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9039</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1">
+        <v>9023</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1">
+        <v>9017</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1">
+        <v>9027</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+      <c r="E56" s="1">
+        <v>9039</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57" s="1">
+        <v>9038</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58" s="1">
+        <v>9044</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59">
+        <v>45</v>
+      </c>
+      <c r="E59" s="1">
+        <v>9041</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1">
+        <v>9039</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA35CB-4990-4B7D-B332-643D04BC081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFC311F-67F1-4BC0-8B5C-5DD159D6BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -377,13 +377,60 @@
   </si>
   <si>
     <t>요사키 마블 50회 완주</t>
+  </si>
+  <si>
+    <t>FOURTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMission1</t>
+  </si>
+  <si>
+    <t>FMission2</t>
+  </si>
+  <si>
+    <t>FMission3</t>
+  </si>
+  <si>
+    <t>FMission4</t>
+  </si>
+  <si>
+    <t>FMission5</t>
+  </si>
+  <si>
+    <t>FMission6</t>
+  </si>
+  <si>
+    <t>FMission7</t>
+  </si>
+  <si>
+    <t>FMission8</t>
+  </si>
+  <si>
+    <t>FMission9</t>
+  </si>
+  <si>
+    <t>FMission10</t>
+  </si>
+  <si>
+    <t>FMission11</t>
+  </si>
+  <si>
+    <t>FMission12</t>
+  </si>
+  <si>
+    <t>미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십만대산 클리어하기</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +469,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFED94C0"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -470,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,6 +544,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -809,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1356,16 +1412,16 @@
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>9042</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8808</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1385,16 +1441,16 @@
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>9042</v>
+        <v>10</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8808</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1414,16 +1470,16 @@
         <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9042</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>8808</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1448,14 +1504,14 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="3">
-        <v>9042</v>
+      <c r="E22" s="7">
+        <v>8808</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1477,8 +1533,8 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="3">
-        <v>9042</v>
+      <c r="E23" s="7">
+        <v>8808</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1506,14 +1562,14 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="3">
-        <v>9042</v>
+      <c r="E24" s="7">
+        <v>8808</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -1535,14 +1591,14 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="3">
-        <v>9042</v>
+      <c r="E25" s="7">
+        <v>8808</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1564,14 +1620,14 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
-        <v>9042</v>
+      <c r="E26" s="7">
+        <v>8808</v>
       </c>
       <c r="F26">
         <v>10</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1593,14 +1649,14 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="3">
-        <v>9042</v>
+      <c r="E27" s="7">
+        <v>8808</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1620,16 +1676,16 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>9042</v>
+        <v>10</v>
+      </c>
+      <c r="E28" s="7">
+        <v>8808</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1649,16 +1705,16 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>9042</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="7">
+        <v>8808</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2564,6 +2620,354 @@
       </c>
       <c r="I60" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
+        <v>8808</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFC311F-67F1-4BC0-8B5C-5DD159D6BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E1310C-C63E-4367-B95A-8F2627C2DF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -260,10 +260,6 @@
     <t>NMarbleMission8</t>
   </si>
   <si>
-    <t>요사키 마블 1회 완주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FMarbleMission2</t>
   </si>
   <si>
@@ -341,44 +337,6 @@
     <t>FMarbleMission12</t>
   </si>
   <si>
-    <t>요사키 마블 3회 완주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요사키 마블 5회 완주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요사키 마블 10회 완주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요사키 마블 15회 완주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요사키 마블 20회 완주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요사키 마블 25회 완주</t>
-  </si>
-  <si>
-    <t>요사키 마블 30회 완주</t>
-  </si>
-  <si>
-    <t>요사키 마블 35회 완주</t>
-  </si>
-  <si>
-    <t>요사키 마블 40회 완주</t>
-  </si>
-  <si>
-    <t>요사키 마블 45회 완주</t>
-  </si>
-  <si>
-    <t>요사키 마블 50회 완주</t>
-  </si>
-  <si>
     <t>FOURTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +382,43 @@
   </si>
   <si>
     <t>십만대산 클리어하기</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 1회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요사키 윷놀이 3회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 5회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 10회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 15회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 20회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 25회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 30회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 35회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 40회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 45회 완주</t>
+  </si>
+  <si>
+    <t>요사키 윷놀이 50회 완주</t>
   </si>
 </sst>
 </file>
@@ -867,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1035,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1064,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1093,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1122,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1180,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -1238,7 +1233,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -1264,10 +1259,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1296,7 +1291,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -1322,10 +1317,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -1351,10 +1346,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -1383,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -1470,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1499,7 +1494,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1528,7 +1523,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1557,7 +1552,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1586,7 +1581,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1615,7 +1610,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1644,7 +1639,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1847,7 +1842,7 @@
         <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1905,7 +1900,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1931,10 +1926,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1963,7 +1958,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1992,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2021,7 +2016,7 @@
         <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2079,7 +2074,7 @@
         <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2117,7 +2112,7 @@
         <v>17</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -2137,7 +2132,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2166,7 +2161,7 @@
         <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2195,7 +2190,7 @@
         <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2224,7 +2219,7 @@
         <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2253,7 +2248,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2282,13 +2277,13 @@
         <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>1461</v>
+        <v>7297</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2308,19 +2303,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>9033</v>
+        <v>7279</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -2337,19 +2332,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51" s="1">
-        <v>9028</v>
+        <v>1493</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -2366,19 +2361,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D52">
         <v>10</v>
       </c>
       <c r="E52" s="1">
-        <v>9039</v>
+        <v>9017</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -2395,19 +2390,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D53">
         <v>15</v>
       </c>
       <c r="E53" s="1">
-        <v>9023</v>
+        <v>9027</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -2424,19 +2419,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D54">
         <v>20</v>
       </c>
       <c r="E54" s="1">
-        <v>9017</v>
+        <v>9039</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -2453,16 +2448,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D55">
         <v>25</v>
       </c>
       <c r="E55" s="1">
-        <v>9027</v>
+        <v>9044</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -2482,19 +2477,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D56">
         <v>30</v>
       </c>
       <c r="E56" s="1">
-        <v>9039</v>
+        <v>9050</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -2511,19 +2506,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D57">
         <v>35</v>
       </c>
       <c r="E57" s="1">
-        <v>9038</v>
+        <v>9063</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -2540,19 +2535,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D58">
         <v>40</v>
       </c>
       <c r="E58" s="1">
-        <v>9044</v>
+        <v>9041</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -2569,19 +2564,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D59">
         <v>45</v>
       </c>
       <c r="E59" s="1">
-        <v>9041</v>
+        <v>9053</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -2598,10 +2593,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D60">
         <v>50</v>
@@ -2627,7 +2622,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
@@ -2648,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2656,10 +2651,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2677,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2685,7 +2680,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>53</v>
@@ -2706,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2714,10 +2709,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2735,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -2743,10 +2738,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2764,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2772,10 +2767,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2793,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2801,10 +2796,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2822,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2830,10 +2825,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2851,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2859,10 +2854,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2880,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -2888,10 +2883,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2909,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2917,10 +2912,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2938,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -2946,10 +2941,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2967,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E1310C-C63E-4367-B95A-8F2627C2DF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA09E7-D13C-4543-ADC4-1F4D53FFA89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -419,6 +419,54 @@
   </si>
   <si>
     <t>요사키 윷놀이 50회 완주</t>
+  </si>
+  <si>
+    <t>ANMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 점수 등록하기</t>
+  </si>
+  <si>
+    <t>ANNIVERSARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANMission2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견공 먹이주기</t>
+  </si>
+  <si>
+    <t>ANMission3</t>
+  </si>
+  <si>
+    <t>ANMission4</t>
+  </si>
+  <si>
+    <t>반딧불전 클리어 또는 소탕</t>
+  </si>
+  <si>
+    <t>ANMission5</t>
+  </si>
+  <si>
+    <t>도깨비전 클리어 또는 소탕</t>
+  </si>
+  <si>
+    <t>ANMission6</t>
+  </si>
+  <si>
+    <t>메뉴-광고보상-보상 받기 1회 수령</t>
+  </si>
+  <si>
+    <t>ANMission7</t>
+  </si>
+  <si>
+    <t>검의산 검기 보상 받기</t>
+  </si>
+  <si>
+    <t>ANMission8</t>
   </si>
 </sst>
 </file>
@@ -518,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +591,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -564,9 +615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -604,7 +655,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -710,7 +761,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -852,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -860,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2965,6 +3016,238 @@
         <v>87</v>
       </c>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>9039</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>9039</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>9039</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>9039</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>9039</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>9039</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>9039</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>9039</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA09E7-D13C-4543-ADC4-1F4D53FFA89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA631A4-6782-4436-9C30-372E70040AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -384,43 +384,6 @@
     <t>십만대산 클리어하기</t>
   </si>
   <si>
-    <t>요사키 윷놀이 1회 완주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요사키 윷놀이 3회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 5회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 10회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 15회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 20회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 25회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 30회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 35회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 40회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 45회 완주</t>
-  </si>
-  <si>
-    <t>요사키 윷놀이 50회 완주</t>
-  </si>
-  <si>
     <t>ANMission1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,6 +430,51 @@
   </si>
   <si>
     <t>ANMission8</t>
+  </si>
+  <si>
+    <t>1회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회 완주</t>
+  </si>
+  <si>
+    <t>7회 완주</t>
+  </si>
+  <si>
+    <t>9회 완주</t>
+  </si>
+  <si>
+    <t>12회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -913,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2328,16 +2336,16 @@
         <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>7297</v>
+        <v>9039</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -2357,16 +2365,16 @@
         <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>7279</v>
+        <v>9039</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -2386,16 +2394,16 @@
         <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51" s="1">
-        <v>1493</v>
+        <v>9039</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -2415,13 +2423,13 @@
         <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E52" s="1">
-        <v>9017</v>
+        <v>9039</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -2444,13 +2452,13 @@
         <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1">
-        <v>9027</v>
+        <v>9039</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -2473,16 +2481,16 @@
         <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E54" s="1">
         <v>9039</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -2502,16 +2510,16 @@
         <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1">
-        <v>9044</v>
+        <v>9039</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -2531,16 +2539,16 @@
         <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E56" s="1">
-        <v>9050</v>
+        <v>9039</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -2560,16 +2568,16 @@
         <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D57">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1">
-        <v>9063</v>
+        <v>9039</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -2589,16 +2597,16 @@
         <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D58">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E58" s="1">
-        <v>9041</v>
+        <v>9039</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -2618,16 +2626,16 @@
         <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D59">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E59" s="1">
-        <v>9053</v>
+        <v>9039</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -2647,7 +2655,7 @@
         <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D60">
         <v>50</v>
@@ -2656,7 +2664,7 @@
         <v>9039</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3021,10 +3029,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D73">
         <v>10</v>
@@ -3042,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -3050,10 +3058,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D74">
         <v>10</v>
@@ -3071,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -3079,7 +3087,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>101</v>
@@ -3100,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3108,10 +3116,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3129,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3137,10 +3145,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -3158,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -3166,10 +3174,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -3187,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3195,10 +3203,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D79">
         <v>7</v>
@@ -3216,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -3224,7 +3232,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>84</v>
@@ -3245,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA631A4-6782-4436-9C30-372E70040AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23CBCE-4666-461E-9D04-DCF475CF50C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>1</v>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23CBCE-4666-461E-9D04-DCF475CF50C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B575D813-CDBF-4C1E-9B17-A6D9B0F1C2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -469,11 +469,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27회 완주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30회 완주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50회 완주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
